--- a/biology/Zoologie/École_nationale_supérieure_vétérinaire/École_nationale_supérieure_vétérinaire.xlsx
+++ b/biology/Zoologie/École_nationale_supérieure_vétérinaire/École_nationale_supérieure_vétérinaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_v%C3%A9t%C3%A9rinaire</t>
+          <t>École_nationale_supérieure_vétérinaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’École nationale supérieure vétérinaire d'Alger (arabe : المدرسة الوطنية العليا للبيطرة) est un établissement public d’enseignement supérieur algérien fondée en 1970, par décret présidentiel no 65-69 du 11 mars 1965. Elle est située à El Alia - Oued Smar  à 14 km à l’est d’Alger.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_v%C3%A9t%C3%A9rinaire</t>
+          <t>École_nationale_supérieure_vétérinaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Conditions d’admission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’admission à l'école est possible pour les Algériens bacheliers des séries : 
 mathématique technique
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_v%C3%A9t%C3%A9rinaire</t>
+          <t>École_nationale_supérieure_vétérinaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +562,11 @@
           <t>Le cursus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’enseignement est en langue française et la formation a une durée de six années divisée en deux cycles (à partir de l'année 2022/2023) :
-Cycle pré-clinique
-C'est un cycle préparatoire pour l'entrée en cycle clinique. Durant les trois premières années du cursus, les étudiants reçoivent des cours de sciences fondamentales. La pré-clinique est à la fois théorique et pratique.
-Cycle clinique
-C'est pendant les deux dernières années que les étudiants commencent à faire le diagnostic, donner des traitements et prévenir des pathologies infectieuses, métaboliques et chirurgicales des animaux de production (volailles, bovins, ovins et caprins) et de compagnie (carnivores et équidés).
 </t>
         </is>
       </c>
@@ -565,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_v%C3%A9t%C3%A9rinaire</t>
+          <t>École_nationale_supérieure_vétérinaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +592,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Le cursus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cycle pré-clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un cycle préparatoire pour l'entrée en cycle clinique. Durant les trois premières années du cursus, les étudiants reçoivent des cours de sciences fondamentales. La pré-clinique est à la fois théorique et pratique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_vétérinaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_v%C3%A9t%C3%A9rinaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le cursus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cycle clinique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est pendant les deux dernières années que les étudiants commencent à faire le diagnostic, donner des traitements et prévenir des pathologies infectieuses, métaboliques et chirurgicales des animaux de production (volailles, bovins, ovins et caprins) et de compagnie (carnivores et équidés).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_vétérinaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_v%C3%A9t%C3%A9rinaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>La consultation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est ouverte au large public du dimanche au jeudi, de 8h30 à 11h30 et sans rendez-vous. Elle est sous deux formes :
 1 Au sein de l'école
@@ -598,31 +686,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_v%C3%A9t%C3%A9rinaire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_vétérinaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_v%C3%A9t%C3%A9rinaire</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Manifestations scientifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Journées des Sciences Vétérinaires pour une mise au point sur les nouvelles acquisitions scientifiques, des thèmes sont choisis étroitement aux préoccupations majeures de l’Algérie.
 1re JSV; 25 novembre 2004 : Gestion péri-partum des élevages des animaux domestiques.
@@ -636,31 +726,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cole_nationale_sup%C3%A9rieure_v%C3%A9t%C3%A9rinaire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>École_nationale_supérieure_vétérinaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cole_nationale_sup%C3%A9rieure_v%C3%A9t%C3%A9rinaire</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Bibliothèque</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>L'école dispose :
 d'une bibliothèque composé de 14 000 ouvrages entre livres, mémoires, thèses, périodiques et CD-ROM ;
